--- a/ac translations/English.xlsx
+++ b/ac translations/English.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\ac translations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="English Translation" sheetId="1" r:id="rId3"/>
+    <sheet name="English Translation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -839,6 +847,9 @@
 TV remote control for your click play set top case</t>
   </si>
   <si>
+    <t>App Description</t>
+  </si>
+  <si>
     <t>FREE edition for a limited time
 **DISCLAIMER
 This app is not the official ____ app. 
@@ -852,44 +863,40 @@
 * NO installation, just click and play
 * AMAZING design with cool &amp; easy interface
 Have questions? remote isn't working?
-Please feel free to contact us on _____
-TV remote control for your click play set top case</t>
-  </si>
-  <si>
-    <t>App Description</t>
+Please feel free to contact us on _____</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="22.0"/>
+      <sz val="22"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -898,120 +905,448 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B130" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="65.0"/>
+    <col min="1" max="26" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
         <v>12</v>
@@ -1065,7 +1400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
         <v>14</v>
@@ -1077,7 +1412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
@@ -1089,7 +1424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="7" t="s">
         <v>18</v>
@@ -1101,7 +1436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="7" t="s">
         <v>20</v>
@@ -1113,7 +1448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
         <v>22</v>
@@ -1125,7 +1460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="7" t="s">
         <v>24</v>
@@ -1137,7 +1472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
         <v>26</v>
@@ -1149,7 +1484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="7" t="s">
         <v>28</v>
@@ -1161,7 +1496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="7" t="s">
         <v>30</v>
@@ -1173,7 +1508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
         <v>32</v>
@@ -1185,7 +1520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="7" t="s">
         <v>34</v>
@@ -1197,7 +1532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="7" t="s">
         <v>36</v>
@@ -1209,7 +1544,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="7" t="s">
         <v>38</v>
@@ -1221,7 +1556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="7" t="s">
         <v>40</v>
@@ -1233,7 +1568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
         <v>42</v>
@@ -1245,7 +1580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
         <v>44</v>
@@ -1257,7 +1592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="7" t="s">
         <v>46</v>
@@ -1269,7 +1604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="7" t="s">
         <v>48</v>
@@ -1281,7 +1616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
         <v>50</v>
@@ -1293,7 +1628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
         <v>52</v>
@@ -1305,7 +1640,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
         <v>54</v>
@@ -1317,7 +1652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="7" t="s">
         <v>56</v>
@@ -1329,7 +1664,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="7" t="s">
         <v>58</v>
@@ -1341,7 +1676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="7" t="s">
         <v>60</v>
@@ -1353,7 +1688,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="7" t="s">
         <v>62</v>
@@ -1365,7 +1700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="7" t="s">
         <v>64</v>
@@ -1377,7 +1712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="7" t="s">
         <v>66</v>
@@ -1389,7 +1724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="7" t="s">
         <v>68</v>
@@ -1401,7 +1736,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="7" t="s">
         <v>70</v>
@@ -1413,7 +1748,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="7" t="s">
         <v>72</v>
@@ -1425,7 +1760,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="7" t="s">
         <v>74</v>
@@ -1437,7 +1772,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="7" t="s">
         <v>76</v>
@@ -1449,7 +1784,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
         <v>78</v>
@@ -1461,7 +1796,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="7" t="s">
         <v>80</v>
@@ -1473,7 +1808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="7" t="s">
         <v>82</v>
@@ -1485,7 +1820,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="7" t="s">
         <v>84</v>
@@ -1497,7 +1832,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="7" t="s">
         <v>86</v>
@@ -1509,7 +1844,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="7" t="s">
         <v>82</v>
@@ -1521,7 +1856,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="7" t="s">
         <v>89</v>
@@ -1533,7 +1868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="7" t="s">
         <v>91</v>
@@ -1545,7 +1880,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
         <v>93</v>
@@ -1557,7 +1892,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
         <v>95</v>
@@ -1569,7 +1904,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="7" t="s">
         <v>97</v>
@@ -1581,7 +1916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
         <v>99</v>
@@ -1593,7 +1928,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="7" t="s">
         <v>101</v>
@@ -1605,7 +1940,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
         <v>103</v>
@@ -1617,7 +1952,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
         <v>105</v>
@@ -1629,7 +1964,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
         <v>107</v>
@@ -1641,7 +1976,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="7" t="s">
         <v>109</v>
@@ -1653,7 +1988,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="7" t="s">
         <v>111</v>
@@ -1665,7 +2000,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="7" t="s">
         <v>113</v>
@@ -1677,7 +2012,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="7" t="s">
         <v>115</v>
@@ -1689,7 +2024,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="7" t="s">
         <v>117</v>
@@ -1701,7 +2036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="7" t="s">
         <v>119</v>
@@ -1713,7 +2048,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="7" t="s">
         <v>121</v>
@@ -1725,7 +2060,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="7" t="s">
         <v>123</v>
@@ -1737,7 +2072,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="7" t="s">
         <v>125</v>
@@ -1749,7 +2084,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="7" t="s">
         <v>125</v>
@@ -1761,7 +2096,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="7" t="s">
         <v>128</v>
@@ -1773,7 +2108,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="7" t="s">
         <v>130</v>
@@ -1785,7 +2120,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="7" t="s">
         <v>132</v>
@@ -1797,7 +2132,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="7" t="s">
         <v>134</v>
@@ -1809,7 +2144,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="7" t="s">
         <v>136</v>
@@ -1821,7 +2156,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="7" t="s">
         <v>138</v>
@@ -1833,7 +2168,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="7" t="s">
         <v>140</v>
@@ -1845,7 +2180,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="7" t="s">
         <v>142</v>
@@ -1857,7 +2192,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="7" t="s">
         <v>144</v>
@@ -1869,7 +2204,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="7" t="s">
         <v>146</v>
@@ -1881,7 +2216,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="7" t="s">
         <v>148</v>
@@ -1893,7 +2228,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="7" t="s">
         <v>150</v>
@@ -1905,7 +2240,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="7" t="s">
         <v>152</v>
@@ -1917,7 +2252,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="7" t="s">
         <v>154</v>
@@ -1929,7 +2264,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="7" t="s">
         <v>82</v>
@@ -1941,7 +2276,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="7" t="s">
         <v>157</v>
@@ -1953,7 +2288,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="7" t="s">
         <v>159</v>
@@ -1965,7 +2300,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="7" t="s">
         <v>161</v>
@@ -1977,7 +2312,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="7" t="s">
         <v>163</v>
@@ -1989,7 +2324,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="7" t="s">
         <v>165</v>
@@ -2001,7 +2336,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="7" t="s">
         <v>167</v>
@@ -2013,7 +2348,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="7" t="s">
         <v>169</v>
@@ -2025,7 +2360,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="7" t="s">
         <v>171</v>
@@ -2037,7 +2372,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="7" t="s">
         <v>173</v>
@@ -2049,7 +2384,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="7" t="s">
         <v>175</v>
@@ -2061,7 +2396,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="7" t="s">
         <v>177</v>
@@ -2073,7 +2408,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="7" t="s">
         <v>179</v>
@@ -2085,7 +2420,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="7" t="s">
         <v>181</v>
@@ -2097,7 +2432,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="7" t="s">
         <v>183</v>
@@ -2109,7 +2444,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="7" t="s">
         <v>185</v>
@@ -2121,7 +2456,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="7" t="s">
         <v>187</v>
@@ -2133,7 +2468,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="7" t="s">
         <v>189</v>
@@ -2145,7 +2480,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="7" t="s">
         <v>191</v>
@@ -2157,7 +2492,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="7" t="s">
         <v>193</v>
@@ -2169,7 +2504,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="7" t="s">
         <v>195</v>
@@ -2181,7 +2516,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="7" t="s">
         <v>157</v>
@@ -2193,7 +2528,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="7" t="s">
         <v>198</v>
@@ -2205,7 +2540,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="7" t="s">
         <v>200</v>
@@ -2217,7 +2552,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="7" t="s">
         <v>202</v>
@@ -2229,7 +2564,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="7" t="s">
         <v>204</v>
@@ -2241,7 +2576,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="7" t="s">
         <v>206</v>
@@ -2253,7 +2588,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="7" t="s">
         <v>208</v>
@@ -2265,7 +2600,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="7" t="s">
         <v>210</v>
@@ -2277,7 +2612,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="7" t="s">
         <v>212</v>
@@ -2289,7 +2624,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="7" t="s">
         <v>214</v>
@@ -2301,7 +2636,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="7" t="s">
         <v>216</v>
@@ -2313,7 +2648,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="7" t="s">
         <v>218</v>
@@ -2325,7 +2660,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="7" t="s">
         <v>220</v>
@@ -2337,7 +2672,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="7" t="s">
         <v>222</v>
@@ -2349,7 +2684,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="7" t="s">
         <v>224</v>
@@ -2361,7 +2696,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="7" t="s">
         <v>226</v>
@@ -2373,7 +2708,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="7" t="s">
         <v>228</v>
@@ -2385,7 +2720,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="7" t="s">
         <v>230</v>
@@ -2397,7 +2732,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="7" t="s">
         <v>232</v>
@@ -2409,7 +2744,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="7" t="s">
         <v>234</v>
@@ -2421,7 +2756,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="7" t="s">
         <v>93</v>
@@ -2433,7 +2768,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="7" t="s">
         <v>237</v>
@@ -2445,7 +2780,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="7" t="s">
         <v>239</v>
@@ -2457,7 +2792,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="7" t="s">
         <v>82</v>
@@ -2469,7 +2804,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="7" t="s">
         <v>242</v>
@@ -2481,7 +2816,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="7" t="s">
         <v>244</v>
@@ -2493,7 +2828,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="7" t="s">
         <v>246</v>
@@ -2505,7 +2840,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="7" t="s">
         <v>248</v>
@@ -2517,7 +2852,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="7" t="s">
         <v>250</v>
@@ -2529,7 +2864,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="7" t="s">
         <v>252</v>
@@ -2541,7 +2876,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="7" t="s">
         <v>254</v>
@@ -2553,7 +2888,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="7" t="s">
         <v>256</v>
@@ -2565,7 +2900,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="7" t="s">
         <v>258</v>
@@ -2577,7 +2912,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="7" t="s">
         <v>260</v>
@@ -2589,7 +2924,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="7" t="s">
         <v>262</v>
@@ -2601,7 +2936,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="7" t="s">
         <v>264</v>
@@ -2613,7 +2948,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="7" t="s">
         <v>266</v>
@@ -2625,7 +2960,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" ht="315" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>268</v>
       </c>
@@ -2633,13 +2968,13 @@
         <v>269</v>
       </c>
       <c r="C137" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F137" t="s">
         <v>270</v>
       </c>
-      <c r="F137" t="s">
-        <v>271</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>